--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="65">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -22,22 +22,34 @@
     <t>Health System/Hospital</t>
   </si>
   <si>
-    <t>N95 masks</t>
-  </si>
-  <si>
     <t>N95 Masks</t>
   </si>
   <si>
+    <t>N95 masks scores</t>
+  </si>
+  <si>
     <t>Surgical Masks</t>
   </si>
   <si>
+    <t>Surgery masks scores</t>
+  </si>
+  <si>
     <t>Surgical Gowns</t>
   </si>
   <si>
+    <t>Gowns scores</t>
+  </si>
+  <si>
     <t>Eye Protection</t>
   </si>
   <si>
+    <t>Eye scores</t>
+  </si>
+  <si>
     <t>Gloves</t>
+  </si>
+  <si>
+    <t>Glove scores</t>
   </si>
   <si>
     <t>System/Independent</t>
@@ -554,13 +566,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -591,8 +603,20 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,34 +624,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G2">
+        <v>0.25</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="I2">
+        <v>0.5</v>
       </c>
       <c r="J2" t="s">
         <v>59</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2">
         <v>0.7509999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -635,34 +671,46 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
       <c r="J3" t="s">
         <v>59</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>63</v>
+      </c>
+      <c r="O3">
         <v>0.131</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -670,34 +718,46 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K4">
+        <v>0.5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4">
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -705,34 +765,46 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
         <v>0.75</v>
       </c>
-      <c r="E5" t="s">
-        <v>56</v>
-      </c>
       <c r="F5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G5">
+        <v>0.25</v>
       </c>
       <c r="H5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="I5">
+        <v>0.25</v>
       </c>
       <c r="J5" t="s">
         <v>59</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M5">
+        <v>0.25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+      <c r="O5">
         <v>0.72</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -740,34 +812,46 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="G6">
+        <v>0.25</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>59</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>61</v>
+      </c>
+      <c r="M6">
+        <v>0.5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6">
         <v>0.6909999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -775,34 +859,46 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
       </c>
       <c r="J7" t="s">
         <v>59</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>63</v>
+      </c>
+      <c r="O7">
         <v>0.8240000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -810,34 +906,46 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G8">
+        <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -845,34 +953,46 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>21</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
       </c>
       <c r="H9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9">
+        <v>0.25</v>
+      </c>
+      <c r="N9" t="s">
+        <v>63</v>
+      </c>
+      <c r="O9">
         <v>0.7879999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -880,34 +1000,46 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>64</v>
+      </c>
+      <c r="O10">
         <v>0.429</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -915,34 +1047,46 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>59</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O11">
         <v>0.4</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -950,34 +1094,46 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12">
         <v>0.067</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -985,34 +1141,46 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13">
         <v>0.182</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1020,34 +1188,46 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G14">
+        <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>59</v>
       </c>
       <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14">
+        <v>0.25</v>
+      </c>
+      <c r="N14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O14">
         <v>0.794</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1055,34 +1235,46 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>0.75</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
-      </c>
-      <c r="I15" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>64</v>
+      </c>
+      <c r="O15">
         <v>0.229</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1090,34 +1282,46 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>57</v>
-      </c>
-      <c r="I16" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="I16">
+        <v>0.25</v>
       </c>
       <c r="J16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K16">
+        <v>0.5</v>
+      </c>
+      <c r="L16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>64</v>
+      </c>
+      <c r="O16">
         <v>0.273</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1125,34 +1329,46 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
+        <v>29</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17">
         <v>0.73</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1160,34 +1376,46 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G18">
+        <v>0.25</v>
       </c>
       <c r="H18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>0.25</v>
+      </c>
+      <c r="L18" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18">
+        <v>0.25</v>
+      </c>
+      <c r="N18" t="s">
+        <v>63</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1195,34 +1423,46 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>55</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="I19">
+        <v>0.25</v>
       </c>
       <c r="J19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K19">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1230,34 +1470,46 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>55</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>64</v>
+      </c>
+      <c r="O20">
         <v>0.4</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1265,34 +1517,46 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
+        <v>33</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
-      </c>
-      <c r="G21" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>55</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="I21">
+        <v>0.5</v>
       </c>
       <c r="J21" t="s">
+        <v>59</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
         <v>60</v>
       </c>
-      <c r="K21">
+      <c r="M21">
+        <v>0.75</v>
+      </c>
+      <c r="N21" t="s">
+        <v>64</v>
+      </c>
+      <c r="O21">
         <v>0.28</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1300,34 +1564,46 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I22" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>61</v>
+      </c>
+      <c r="M22">
+        <v>0.5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>64</v>
+      </c>
+      <c r="O22">
         <v>0.16</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1335,34 +1611,46 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G23">
+        <v>0.5</v>
       </c>
       <c r="H23" t="s">
-        <v>55</v>
-      </c>
-      <c r="I23" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>59</v>
       </c>
       <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>63</v>
+      </c>
+      <c r="O23">
         <v>0.7859999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1370,34 +1658,46 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="D24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24">
         <v>0.5</v>
       </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
       <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="G24">
+        <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="I24">
+        <v>0.75</v>
       </c>
       <c r="J24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>59</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>64</v>
+      </c>
+      <c r="O24">
         <v>0.4320000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1405,34 +1705,46 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>55</v>
-      </c>
-      <c r="I25" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
       </c>
       <c r="J25" t="s">
         <v>59</v>
       </c>
       <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>63</v>
+      </c>
+      <c r="O25">
         <v>0.5870000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1440,34 +1752,46 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="G26">
+        <v>0.5</v>
       </c>
       <c r="H26" t="s">
-        <v>56</v>
-      </c>
-      <c r="I26" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="I26">
+        <v>0.5</v>
       </c>
       <c r="J26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K26">
+        <v>0.75</v>
+      </c>
+      <c r="L26" t="s">
+        <v>62</v>
+      </c>
+      <c r="M26">
+        <v>0.25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26">
         <v>0.836</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1475,34 +1799,46 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27">
         <v>0.5</v>
       </c>
-      <c r="E27" t="s">
-        <v>57</v>
-      </c>
       <c r="F27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="G27">
+        <v>0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>55</v>
-      </c>
-      <c r="I27" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="I27">
+        <v>0.5</v>
       </c>
       <c r="J27" t="s">
         <v>59</v>
       </c>
       <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27">
+        <v>0.5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>63</v>
+      </c>
+      <c r="O27">
         <v>0.537</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1510,34 +1846,46 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G28">
+        <v>0.5</v>
       </c>
       <c r="H28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I28" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>59</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>64</v>
+      </c>
+      <c r="O28">
         <v>0.214</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1545,34 +1893,46 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29">
-        <v>0.25</v>
-      </c>
-      <c r="E29" t="s">
-        <v>58</v>
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="G29">
+        <v>0.25</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" t="s">
-        <v>57</v>
+        <v>62</v>
+      </c>
+      <c r="I29">
+        <v>0.25</v>
       </c>
       <c r="J29" t="s">
         <v>59</v>
       </c>
       <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>61</v>
+      </c>
+      <c r="M29">
+        <v>0.5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29">
         <v>0.616</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1580,34 +1940,46 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="G30">
+        <v>0.5</v>
       </c>
       <c r="H30" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="I30">
+        <v>0.5</v>
       </c>
       <c r="J30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30">
         <v>0.257</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1615,34 +1987,46 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
+        <v>43</v>
+      </c>
+      <c r="D31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>64</v>
+      </c>
+      <c r="O31">
         <v>0.5579999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1650,34 +2034,46 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="D32" t="s">
+        <v>59</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>55</v>
-      </c>
-      <c r="I32" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32" t="s">
+        <v>62</v>
+      </c>
+      <c r="M32">
+        <v>0.25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O32">
         <v>0.44</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1685,34 +2081,46 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="G33">
+        <v>0.25</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
-      </c>
-      <c r="I33" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33" t="s">
+        <v>62</v>
+      </c>
+      <c r="M33">
+        <v>0.25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33">
         <v>0.008</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1720,34 +2128,46 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="G34">
+        <v>0.25</v>
       </c>
       <c r="H34" t="s">
-        <v>55</v>
-      </c>
-      <c r="I34" t="s">
-        <v>56</v>
+        <v>59</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>59</v>
       </c>
       <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34" t="s">
+        <v>60</v>
+      </c>
+      <c r="M34">
+        <v>0.75</v>
+      </c>
+      <c r="N34" t="s">
+        <v>63</v>
+      </c>
+      <c r="O34">
         <v>0.613</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1755,34 +2175,46 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>55</v>
+        <v>47</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="G35">
+        <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
-      </c>
-      <c r="I35" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="I35">
+        <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K35">
+        <v>0.75</v>
+      </c>
+      <c r="L35" t="s">
+        <v>62</v>
+      </c>
+      <c r="M35">
+        <v>0.25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>63</v>
+      </c>
+      <c r="O35">
         <v>0.283</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1790,34 +2222,46 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
+        <v>62</v>
+      </c>
+      <c r="G36">
+        <v>0.25</v>
       </c>
       <c r="H36" t="s">
-        <v>55</v>
-      </c>
-      <c r="I36" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36" t="s">
+        <v>59</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>64</v>
+      </c>
+      <c r="O36">
         <v>0.121</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1825,34 +2269,46 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>55</v>
-      </c>
-      <c r="I37" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37" t="s">
+        <v>59</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>64</v>
+      </c>
+      <c r="O37">
         <v>0.417</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1860,34 +2316,46 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>55</v>
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="G38">
+        <v>0.25</v>
       </c>
       <c r="H38" t="s">
-        <v>55</v>
-      </c>
-      <c r="I38" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="I38">
+        <v>0.75</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>62</v>
+      </c>
+      <c r="M38">
+        <v>0.25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38">
         <v>0.188</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1895,34 +2363,46 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>55</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
-      </c>
-      <c r="I39" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
       </c>
       <c r="J39" t="s">
         <v>59</v>
       </c>
       <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39" t="s">
+        <v>59</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39">
         <v>0.7909999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1930,34 +2410,46 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
-      </c>
-      <c r="G40" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="I40">
+        <v>0.5</v>
       </c>
       <c r="J40" t="s">
         <v>59</v>
       </c>
       <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40" t="s">
+        <v>59</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>63</v>
+      </c>
+      <c r="O40">
         <v>0.745</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1965,34 +2457,46 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G41">
+        <v>0.75</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-      <c r="I41" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41" t="s">
+        <v>59</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41">
         <v>0.375</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2000,34 +2504,46 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42">
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>60</v>
+      </c>
+      <c r="E42">
         <v>0.75</v>
       </c>
-      <c r="E42" t="s">
-        <v>56</v>
-      </c>
       <c r="F42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>55</v>
-      </c>
-      <c r="I42" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>59</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>64</v>
+      </c>
+      <c r="O42">
         <v>0.6</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2035,34 +2551,46 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
-      </c>
-      <c r="D43">
-        <v>0.25</v>
-      </c>
-      <c r="E43" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43">
+        <v>0.25</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="G43">
+        <v>0.75</v>
       </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K43">
+        <v>1</v>
+      </c>
+      <c r="L43" t="s">
+        <v>62</v>
+      </c>
+      <c r="M43">
+        <v>0.25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>64</v>
+      </c>
+      <c r="O43">
         <v>0.364</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2070,34 +2598,46 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="G44">
+        <v>0.5</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
-      </c>
-      <c r="I44" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>59</v>
       </c>
       <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44" t="s">
+        <v>61</v>
+      </c>
+      <c r="M44">
+        <v>0.5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44">
         <v>0.762</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2105,34 +2645,46 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>55</v>
-      </c>
-      <c r="I45" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
       </c>
       <c r="J45" t="s">
         <v>59</v>
       </c>
       <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45" t="s">
+        <v>59</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>63</v>
+      </c>
+      <c r="O45">
         <v>0.6870000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2140,30 +2692,42 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>54</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="D46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>55</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>55</v>
-      </c>
-      <c r="I46" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46" t="s">
+        <v>59</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>64</v>
+      </c>
+      <c r="O46">
         <v>0.309</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="66">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Bed occupancy</t>
+  </si>
+  <si>
+    <t>final score</t>
   </si>
   <si>
     <t>Ascension</t>
@@ -566,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +618,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -624,46 +630,49 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G2">
         <v>0.25</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I2">
         <v>0.5</v>
       </c>
       <c r="J2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2">
         <v>0.7509999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.09387499999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -671,46 +680,49 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>0.131</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -718,46 +730,49 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K4">
         <v>0.5</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O4">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -765,46 +780,49 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E5">
         <v>0.75</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G5">
         <v>0.25</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I5">
         <v>0.25</v>
       </c>
       <c r="J5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5">
         <v>0.25</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5">
         <v>0.72</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.008437500000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -812,46 +830,49 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M6">
         <v>0.5</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>0.6909999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.08637499999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -859,46 +880,49 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M7">
         <v>0.5</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O7">
         <v>0.8240000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -906,46 +930,49 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -953,46 +980,49 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>0.5</v>
       </c>
       <c r="H9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M9">
         <v>0.25</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O9">
         <v>0.7879999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.09849999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1000,46 +1030,49 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O10">
         <v>0.429</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1047,46 +1080,49 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K11">
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O11">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1094,46 +1130,49 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O12">
         <v>0.067</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1141,46 +1180,49 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13">
         <v>0.182</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1188,46 +1230,49 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G14">
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M14">
         <v>0.25</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O14">
         <v>0.794</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.09925</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1235,46 +1280,49 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15">
         <v>0.75</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O15">
         <v>0.229</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.17175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1282,46 +1330,49 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I16">
         <v>0.25</v>
       </c>
       <c r="J16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16">
         <v>0.5</v>
       </c>
       <c r="L16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M16">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16">
         <v>0.273</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.034125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1329,46 +1380,49 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O17">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1376,46 +1430,49 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G18">
         <v>0.25</v>
       </c>
       <c r="H18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I18">
         <v>0.25</v>
       </c>
       <c r="J18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K18">
         <v>0.25</v>
       </c>
       <c r="L18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M18">
         <v>0.25</v>
       </c>
       <c r="N18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.00390625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1423,46 +1480,49 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I19">
         <v>0.25</v>
       </c>
       <c r="J19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K19">
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O19">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1470,46 +1530,49 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1517,46 +1580,49 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I21">
         <v>0.5</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21">
         <v>0.75</v>
       </c>
       <c r="N21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O21">
         <v>0.28</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1564,46 +1630,49 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M22">
         <v>0.5</v>
       </c>
       <c r="N22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O22">
         <v>0.16</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1611,46 +1680,49 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>0.5</v>
       </c>
       <c r="H23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M23">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O23">
         <v>0.7859999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1658,46 +1730,49 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E24">
         <v>0.5</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G24">
         <v>0.5</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I24">
         <v>0.75</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O24">
         <v>0.4320000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.08100000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1705,46 +1780,49 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M25">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O25">
         <v>0.5870000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25">
+        <v>0.5870000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1752,46 +1830,49 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G26">
         <v>0.5</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I26">
         <v>0.5</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26">
         <v>0.75</v>
       </c>
       <c r="L26" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M26">
         <v>0.25</v>
       </c>
       <c r="N26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O26">
         <v>0.836</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26">
+        <v>0.0391875</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1799,46 +1880,49 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>0.5</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27">
         <v>0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I27">
         <v>0.5</v>
       </c>
       <c r="J27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K27">
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M27">
         <v>0.5</v>
       </c>
       <c r="N27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O27">
         <v>0.537</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="P27">
+        <v>0.01678125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1846,46 +1930,49 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G28">
         <v>0.5</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K28">
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M28">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O28">
         <v>0.214</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1893,46 +1980,49 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E29">
         <v>0.25</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G29">
         <v>0.25</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I29">
         <v>0.25</v>
       </c>
       <c r="J29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29">
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M29">
         <v>0.5</v>
       </c>
       <c r="N29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O29">
         <v>0.616</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29">
+        <v>0.0048125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1940,46 +2030,49 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G30">
         <v>0.5</v>
       </c>
       <c r="H30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I30">
         <v>0.5</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K30">
         <v>0.5</v>
       </c>
       <c r="L30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M30">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O30">
         <v>0.257</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30">
+        <v>0.032125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1987,46 +2080,49 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K31">
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M31">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O31">
         <v>0.5579999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31">
+        <v>0.5579999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2034,46 +2130,49 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K32">
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M32">
         <v>0.25</v>
       </c>
       <c r="N32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O32">
         <v>0.44</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2081,46 +2180,49 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G33">
         <v>0.25</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K33">
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M33">
         <v>0.25</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O33">
         <v>0.008</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2128,46 +2230,49 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G34">
         <v>0.25</v>
       </c>
       <c r="H34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K34">
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M34">
         <v>0.75</v>
       </c>
       <c r="N34" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O34">
         <v>0.613</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="P34">
+        <v>0.1149375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2175,46 +2280,49 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G35">
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I35">
         <v>0.5</v>
       </c>
       <c r="J35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K35">
         <v>0.75</v>
       </c>
       <c r="L35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M35">
         <v>0.25</v>
       </c>
       <c r="N35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O35">
         <v>0.283</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35">
+        <v>0.013265625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2222,46 +2330,49 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G36">
         <v>0.25</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I36">
         <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K36">
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M36">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O36">
         <v>0.121</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36">
+        <v>0.03025</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2269,46 +2380,49 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K37">
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M37">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O37">
         <v>0.417</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2316,46 +2430,49 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G38">
         <v>0.25</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I38">
         <v>0.75</v>
       </c>
       <c r="J38" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K38">
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M38">
         <v>0.25</v>
       </c>
       <c r="N38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O38">
         <v>0.188</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38">
+        <v>0.008812500000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2363,46 +2480,49 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K39">
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M39">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O39">
         <v>0.7909999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39">
+        <v>0.7909999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2410,46 +2530,49 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I40">
         <v>0.5</v>
       </c>
       <c r="J40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M40">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O40">
         <v>0.745</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40">
+        <v>0.3725</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2457,46 +2580,49 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G41">
         <v>0.75</v>
       </c>
       <c r="H41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I41">
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K41">
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M41">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O41">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2504,46 +2630,49 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E42">
         <v>0.75</v>
       </c>
       <c r="F42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I42">
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K42">
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O42">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2551,46 +2680,49 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E43">
         <v>0.25</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G43">
         <v>0.75</v>
       </c>
       <c r="H43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I43">
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K43">
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M43">
         <v>0.25</v>
       </c>
       <c r="N43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O43">
         <v>0.364</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="P43">
+        <v>0.0170625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2598,46 +2730,49 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G44">
         <v>0.5</v>
       </c>
       <c r="H44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K44">
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M44">
         <v>0.5</v>
       </c>
       <c r="N44" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O44">
         <v>0.762</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44">
+        <v>0.1905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2645,46 +2780,49 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I45">
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K45">
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M45">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O45">
         <v>0.6870000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2692,42 +2830,45 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I46">
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K46">
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M46">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O46">
+        <v>0.309</v>
+      </c>
+      <c r="P46">
         <v>0.309</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -61,157 +61,157 @@
     <t>final score</t>
   </si>
   <si>
+    <t>Deckerville Community Hospital</t>
+  </si>
+  <si>
+    <t>Pontiac General Hospital</t>
+  </si>
+  <si>
+    <t>Hurley Medical Center</t>
+  </si>
+  <si>
+    <t>Munson Health System</t>
+  </si>
+  <si>
+    <t>Beaumont</t>
+  </si>
+  <si>
+    <t>Sheridan Community Hospital</t>
+  </si>
+  <si>
+    <t>ProMedica</t>
+  </si>
+  <si>
+    <t>MidMichigan Health</t>
+  </si>
+  <si>
+    <t>Three Rivers Health</t>
+  </si>
+  <si>
+    <t>Scheurer Hospital</t>
+  </si>
+  <si>
+    <t>North Ottawa Community Hosp</t>
+  </si>
+  <si>
+    <t>Hillsdale Hospital</t>
+  </si>
+  <si>
+    <t>Michigan Medicine</t>
+  </si>
+  <si>
+    <t>Kalkaska Memorial Health Center</t>
+  </si>
+  <si>
+    <t>Harbor Beach Community Hospital</t>
+  </si>
+  <si>
+    <t>McKenzie Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Memorial Healthcare</t>
+  </si>
+  <si>
+    <t>Bronson</t>
+  </si>
+  <si>
     <t>Ascension</t>
   </si>
   <si>
+    <t>Detroit Medical Center</t>
+  </si>
+  <si>
+    <t>Henry Ford Health System</t>
+  </si>
+  <si>
+    <t>Baraga County Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Marlette Regional Hospital</t>
+  </si>
+  <si>
+    <t>Munising Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Oaklawn Hospital</t>
+  </si>
+  <si>
+    <t>Prime Health</t>
+  </si>
+  <si>
     <t>Aspirus</t>
   </si>
   <si>
-    <t>Baraga County Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Beaumont</t>
-  </si>
-  <si>
-    <t>Bronson</t>
+    <t>Hills and Dales General Hospital</t>
+  </si>
+  <si>
+    <t>Helen Newberry Joy Hospital</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Straith Hospital</t>
+  </si>
+  <si>
+    <t>War Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Eaton Rapids Medical Center</t>
+  </si>
+  <si>
+    <t>Mackinac Straits Hospital</t>
   </si>
   <si>
     <t>Covenant</t>
   </si>
   <si>
-    <t>Deckerville Community Hospital</t>
-  </si>
-  <si>
-    <t>Detroit Medical Center</t>
+    <t>Schoolcraft Memorial Hospital</t>
   </si>
   <si>
     <t>Dickinson Memorial Health Care System</t>
   </si>
   <si>
-    <t>Eaton Rapids Medical Center</t>
-  </si>
-  <si>
-    <t>Harbor Beach Community Hospital</t>
-  </si>
-  <si>
-    <t>Helen Newberry Joy Hospital</t>
-  </si>
-  <si>
-    <t>Henry Ford Health System</t>
-  </si>
-  <si>
-    <t>Hills and Dales General Hospital</t>
-  </si>
-  <si>
-    <t>Hillsdale Hospital</t>
+    <t>Sturgis Hospital</t>
+  </si>
+  <si>
+    <t>OSF St. Francis Hospital</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>UP Health</t>
   </si>
   <si>
     <t>Holland Community Hospital</t>
   </si>
   <si>
-    <t>Hurley Medical Center</t>
-  </si>
-  <si>
-    <t>Kalkaska Memorial Health Center</t>
-  </si>
-  <si>
-    <t>Mackinac Straits Hospital</t>
-  </si>
-  <si>
-    <t>Marlette Regional Hospital</t>
-  </si>
-  <si>
-    <t>McKenzie Memorial Hospital</t>
-  </si>
-  <si>
-    <t>McLaren</t>
-  </si>
-  <si>
-    <t>Memorial Healthcare</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Michigan Medicine</t>
-  </si>
-  <si>
-    <t>MidMichigan Health</t>
-  </si>
-  <si>
-    <t>Munising Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Munson Health System</t>
-  </si>
-  <si>
-    <t>North Ottawa Community Hosp</t>
-  </si>
-  <si>
-    <t>OSF St. Francis Hospital</t>
-  </si>
-  <si>
-    <t>Oaklawn Hospital</t>
-  </si>
-  <si>
-    <t>Pontiac General Hospital</t>
-  </si>
-  <si>
-    <t>Prime Health</t>
-  </si>
-  <si>
-    <t>ProMedica</t>
-  </si>
-  <si>
-    <t>Scheurer Hospital</t>
-  </si>
-  <si>
-    <t>Schoolcraft Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Sheridan Community Hospital</t>
-  </si>
-  <si>
     <t>Sparrow Health System</t>
   </si>
   <si>
-    <t>Spectrum</t>
-  </si>
-  <si>
-    <t>Straith Hospital</t>
-  </si>
-  <si>
-    <t>Sturgis Hospital</t>
-  </si>
-  <si>
-    <t>Three Rivers Health</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>UP Health</t>
-  </si>
-  <si>
-    <t>War Memorial Hospital</t>
-  </si>
-  <si>
     <t>21+ days</t>
   </si>
   <si>
+    <t>0-6 days</t>
+  </si>
+  <si>
     <t>15-21 days</t>
   </si>
   <si>
     <t>7-14 days</t>
   </si>
   <si>
-    <t>0-6 days</t>
+    <t>Independent</t>
   </si>
   <si>
     <t>Health System</t>
-  </si>
-  <si>
-    <t>Independent</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -642,13 +642,13 @@
         <v>63</v>
       </c>
       <c r="G2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>60</v>
@@ -666,18 +666,18 @@
         <v>64</v>
       </c>
       <c r="O2">
-        <v>0.7509999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.09387499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
@@ -707,27 +707,27 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
       <c r="O3">
-        <v>0.131</v>
+        <v>0.008</v>
       </c>
       <c r="P3">
-        <v>0.131</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -739,45 +739,45 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="L4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1</v>
+        <v>0.00390625</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
@@ -786,16 +786,16 @@
         <v>61</v>
       </c>
       <c r="E5">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>0.25</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5">
         <v>0.25</v>
@@ -810,45 +810,45 @@
         <v>63</v>
       </c>
       <c r="M5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O5">
-        <v>0.72</v>
+        <v>0.616</v>
       </c>
       <c r="P5">
-        <v>0.008437500000000001</v>
+        <v>0.0048125</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6">
         <v>0.25</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
@@ -857,27 +857,27 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6">
-        <v>0.6909999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="P6">
-        <v>0.08637499999999999</v>
+        <v>0.008437500000000001</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -889,16 +889,16 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J7" t="s">
         <v>60</v>
@@ -907,27 +907,27 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N7" t="s">
         <v>64</v>
       </c>
       <c r="O7">
-        <v>0.8240000000000001</v>
+        <v>0.188</v>
       </c>
       <c r="P7">
-        <v>0.412</v>
+        <v>0.008812500000000001</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -939,66 +939,66 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>0.5</v>
       </c>
       <c r="H8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N8" t="s">
         <v>65</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.283</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.013265625</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9">
+        <v>0.25</v>
+      </c>
+      <c r="H9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9">
         <v>0.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>60</v>
@@ -1010,39 +1010,39 @@
         <v>63</v>
       </c>
       <c r="M9">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O9">
-        <v>0.7879999999999999</v>
+        <v>0.537</v>
       </c>
       <c r="P9">
-        <v>0.09849999999999999</v>
+        <v>0.01678125</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -1057,27 +1057,27 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10">
-        <v>0.429</v>
+        <v>0.364</v>
       </c>
       <c r="P10">
-        <v>0.429</v>
+        <v>0.0170625</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -1089,10 +1089,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H11" t="s">
         <v>60</v>
@@ -1113,21 +1113,21 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O11">
-        <v>0.4</v>
+        <v>0.121</v>
       </c>
       <c r="P11">
-        <v>0.4</v>
+        <v>0.03025</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1139,22 +1139,22 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L12" t="s">
         <v>60</v>
@@ -1163,21 +1163,21 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O12">
-        <v>0.067</v>
+        <v>0.257</v>
       </c>
       <c r="P12">
-        <v>0.067</v>
+        <v>0.032125</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1195,16 +1195,16 @@
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L13" t="s">
         <v>60</v>
@@ -1213,21 +1213,21 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O13">
-        <v>0.182</v>
+        <v>0.273</v>
       </c>
       <c r="P13">
-        <v>0.182</v>
+        <v>0.034125</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1239,45 +1239,45 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G14">
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M14">
         <v>0.25</v>
       </c>
       <c r="N14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O14">
-        <v>0.794</v>
+        <v>0.836</v>
       </c>
       <c r="P14">
-        <v>0.09925</v>
+        <v>0.0391875</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1289,16 +1289,16 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
         <v>61</v>
       </c>
-      <c r="G15">
-        <v>0.75</v>
-      </c>
-      <c r="H15" t="s">
-        <v>60</v>
-      </c>
       <c r="I15">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J15" t="s">
         <v>60</v>
@@ -1313,21 +1313,21 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O15">
-        <v>0.229</v>
+        <v>0.25</v>
       </c>
       <c r="P15">
-        <v>0.17175</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -1345,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I16">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L16" t="s">
         <v>60</v>
@@ -1363,21 +1363,21 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O16">
-        <v>0.273</v>
+        <v>0.067</v>
       </c>
       <c r="P16">
-        <v>0.034125</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1407,77 +1407,77 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O17">
-        <v>0.73</v>
+        <v>0.16</v>
       </c>
       <c r="P17">
-        <v>0.73</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F18" t="s">
         <v>63</v>
       </c>
       <c r="G18">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I18">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M18">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
         <v>64</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="P18">
-        <v>0.00390625</v>
+        <v>0.08100000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1489,45 +1489,45 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G19">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19" t="s">
+        <v>60</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19" t="s">
         <v>63</v>
       </c>
-      <c r="I19">
-        <v>0.25</v>
-      </c>
-      <c r="J19" t="s">
-        <v>60</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>60</v>
-      </c>
       <c r="M19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19">
-        <v>0.25</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="P19">
-        <v>0.0625</v>
+        <v>0.08637499999999999</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1539,16 +1539,16 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H20" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="s">
         <v>60</v>
@@ -1566,18 +1566,18 @@
         <v>65</v>
       </c>
       <c r="O20">
-        <v>0.4</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="P20">
-        <v>0.4</v>
+        <v>0.09387499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1589,16 +1589,16 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J21" t="s">
         <v>60</v>
@@ -1610,24 +1610,24 @@
         <v>61</v>
       </c>
       <c r="M21">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="N21" t="s">
         <v>65</v>
       </c>
       <c r="O21">
-        <v>0.28</v>
+        <v>0.7879999999999999</v>
       </c>
       <c r="P21">
-        <v>0.105</v>
+        <v>0.09849999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1639,10 +1639,10 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="s">
         <v>60</v>
@@ -1657,27 +1657,27 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M22">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N22" t="s">
         <v>65</v>
       </c>
       <c r="O22">
-        <v>0.16</v>
+        <v>0.794</v>
       </c>
       <c r="P22">
-        <v>0.08</v>
+        <v>0.09925</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1689,22 +1689,22 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23">
         <v>0.5</v>
-      </c>
-      <c r="H23" t="s">
-        <v>60</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23" t="s">
-        <v>60</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
       </c>
       <c r="L23" t="s">
         <v>60</v>
@@ -1716,68 +1716,68 @@
         <v>64</v>
       </c>
       <c r="O23">
-        <v>0.7859999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="P23">
-        <v>0.393</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
       </c>
       <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24">
+        <v>0.5</v>
+      </c>
+      <c r="J24" t="s">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
         <v>62</v>
       </c>
-      <c r="E24">
-        <v>0.5</v>
-      </c>
-      <c r="F24" t="s">
-        <v>62</v>
-      </c>
-      <c r="G24">
-        <v>0.5</v>
-      </c>
-      <c r="H24" t="s">
-        <v>61</v>
-      </c>
-      <c r="I24">
+      <c r="M24">
         <v>0.75</v>
       </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
-        <v>60</v>
-      </c>
-      <c r="M24">
-        <v>1</v>
-      </c>
       <c r="N24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O24">
-        <v>0.4320000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="P24">
-        <v>0.08100000000000002</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -1789,10 +1789,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H25" t="s">
         <v>60</v>
@@ -1816,18 +1816,18 @@
         <v>64</v>
       </c>
       <c r="O25">
-        <v>0.5870000000000001</v>
+        <v>0.214</v>
       </c>
       <c r="P25">
-        <v>0.5870000000000001</v>
+        <v>0.107</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1839,25 +1839,25 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
+        <v>60</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26" t="s">
         <v>61</v>
-      </c>
-      <c r="K26">
-        <v>0.75</v>
-      </c>
-      <c r="L26" t="s">
-        <v>63</v>
       </c>
       <c r="M26">
         <v>0.25</v>
@@ -1866,39 +1866,39 @@
         <v>64</v>
       </c>
       <c r="O26">
-        <v>0.836</v>
+        <v>0.44</v>
       </c>
       <c r="P26">
-        <v>0.0391875</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G27">
         <v>0.25</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>60</v>
@@ -1910,24 +1910,24 @@
         <v>62</v>
       </c>
       <c r="M27">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O27">
-        <v>0.537</v>
+        <v>0.613</v>
       </c>
       <c r="P27">
-        <v>0.01678125</v>
+        <v>0.1149375</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1939,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
         <v>60</v>
@@ -1966,39 +1966,39 @@
         <v>65</v>
       </c>
       <c r="O28">
-        <v>0.214</v>
+        <v>0.131</v>
       </c>
       <c r="P28">
-        <v>0.107</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G29">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="H29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I29">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>60</v>
@@ -2007,27 +2007,27 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
         <v>64</v>
       </c>
       <c r="O29">
-        <v>0.616</v>
+        <v>0.229</v>
       </c>
       <c r="P29">
-        <v>0.0048125</v>
+        <v>0.17175</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -2039,22 +2039,22 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L30" t="s">
         <v>60</v>
@@ -2063,21 +2063,21 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O30">
-        <v>0.257</v>
+        <v>0.182</v>
       </c>
       <c r="P30">
-        <v>0.032125</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2089,10 +2089,10 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H31" t="s">
         <v>60</v>
@@ -2107,27 +2107,27 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
       </c>
       <c r="O31">
-        <v>0.5579999999999999</v>
+        <v>0.762</v>
       </c>
       <c r="P31">
-        <v>0.5579999999999999</v>
+        <v>0.1905</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2139,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
@@ -2157,27 +2157,27 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M32">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O32">
-        <v>0.44</v>
+        <v>0.375</v>
       </c>
       <c r="P32">
-        <v>0.11</v>
+        <v>0.28125</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -2189,10 +2189,10 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H33" t="s">
         <v>60</v>
@@ -2207,27 +2207,27 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M33">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O33">
-        <v>0.008</v>
+        <v>0.309</v>
       </c>
       <c r="P33">
-        <v>0.0005</v>
+        <v>0.309</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -2239,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
+        <v>60</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
         <v>63</v>
       </c>
-      <c r="G34">
-        <v>0.25</v>
-      </c>
-      <c r="H34" t="s">
-        <v>60</v>
-      </c>
       <c r="I34">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J34" t="s">
         <v>60</v>
@@ -2257,27 +2257,27 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M34">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O34">
-        <v>0.613</v>
+        <v>0.745</v>
       </c>
       <c r="P34">
-        <v>0.1149375</v>
+        <v>0.3725</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -2289,45 +2289,45 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G35">
         <v>0.5</v>
       </c>
       <c r="H35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M35">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O35">
-        <v>0.283</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="P35">
-        <v>0.013265625</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2339,10 +2339,10 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H36" t="s">
         <v>60</v>
@@ -2363,21 +2363,21 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O36">
-        <v>0.121</v>
+        <v>0.4</v>
       </c>
       <c r="P36">
-        <v>0.03025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2413,21 +2413,21 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O37">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
       <c r="P37">
-        <v>0.417</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2439,16 +2439,16 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G38">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
         <v>60</v>
@@ -2460,24 +2460,24 @@
         <v>63</v>
       </c>
       <c r="M38">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N38" t="s">
         <v>65</v>
       </c>
       <c r="O38">
-        <v>0.188</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="P38">
-        <v>0.008812500000000001</v>
+        <v>0.412</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2516,18 +2516,18 @@
         <v>64</v>
       </c>
       <c r="O39">
-        <v>0.7909999999999999</v>
+        <v>0.417</v>
       </c>
       <c r="P39">
-        <v>0.7909999999999999</v>
+        <v>0.417</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2545,10 +2545,10 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>60</v>
@@ -2566,33 +2566,33 @@
         <v>64</v>
       </c>
       <c r="O40">
-        <v>0.745</v>
+        <v>0.429</v>
       </c>
       <c r="P40">
-        <v>0.3725</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H41" t="s">
         <v>60</v>
@@ -2613,30 +2613,30 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O41">
-        <v>0.375</v>
+        <v>0.6</v>
       </c>
       <c r="P41">
-        <v>0.28125</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>60</v>
@@ -2663,36 +2663,36 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O42">
-        <v>0.6</v>
+        <v>0.5579999999999999</v>
       </c>
       <c r="P42">
-        <v>0.45</v>
+        <v>0.5579999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E43">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H43" t="s">
         <v>60</v>
@@ -2707,27 +2707,27 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M43">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
         <v>65</v>
       </c>
       <c r="O43">
-        <v>0.364</v>
+        <v>0.5870000000000001</v>
       </c>
       <c r="P43">
-        <v>0.0170625</v>
+        <v>0.5870000000000001</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2739,10 +2739,10 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H44" t="s">
         <v>60</v>
@@ -2757,27 +2757,27 @@
         <v>1</v>
       </c>
       <c r="L44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O44">
-        <v>0.762</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="P44">
-        <v>0.1905</v>
+        <v>0.6870000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2816,18 +2816,18 @@
         <v>64</v>
       </c>
       <c r="O45">
-        <v>0.6870000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="P45">
-        <v>0.6870000000000001</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2866,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="O46">
-        <v>0.309</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="P46">
-        <v>0.309</v>
+        <v>0.7909999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -61,141 +61,141 @@
     <t>final score</t>
   </si>
   <si>
+    <t>Hurley Medical Center</t>
+  </si>
+  <si>
+    <t>Munson Health System</t>
+  </si>
+  <si>
+    <t>Beaumont</t>
+  </si>
+  <si>
+    <t>Michigan Medicine</t>
+  </si>
+  <si>
+    <t>MidMichigan Health</t>
+  </si>
+  <si>
+    <t>ProMedica</t>
+  </si>
+  <si>
+    <t>Three Rivers Health</t>
+  </si>
+  <si>
+    <t>Henry Ford Health System</t>
+  </si>
+  <si>
+    <t>Detroit Medical Center</t>
+  </si>
+  <si>
+    <t>Ascension</t>
+  </si>
+  <si>
+    <t>Bronson</t>
+  </si>
+  <si>
+    <t>Sheridan Community Hospital</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>North Ottawa Community Hosp</t>
+  </si>
+  <si>
+    <t>Memorial Healthcare</t>
+  </si>
+  <si>
+    <t>Prime Health</t>
+  </si>
+  <si>
+    <t>Hillsdale Hospital</t>
+  </si>
+  <si>
+    <t>Pontiac General Hospital</t>
+  </si>
+  <si>
+    <t>Covenant</t>
+  </si>
+  <si>
+    <t>McLaren</t>
+  </si>
+  <si>
+    <t>Spectrum</t>
+  </si>
+  <si>
+    <t>Oaklawn Hospital</t>
+  </si>
+  <si>
+    <t>Marlette Regional Hospital</t>
+  </si>
+  <si>
+    <t>Kalkaska Memorial Health Center</t>
+  </si>
+  <si>
+    <t>Scheurer Hospital</t>
+  </si>
+  <si>
+    <t>Sturgis Hospital</t>
+  </si>
+  <si>
+    <t>Sparrow Health System</t>
+  </si>
+  <si>
+    <t>Holland Community Hospital</t>
+  </si>
+  <si>
+    <t>Munising Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Baraga County Memorial Hospital</t>
+  </si>
+  <si>
+    <t>UP Health</t>
+  </si>
+  <si>
+    <t>McKenzie Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Straith Hospital</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>OSF St. Francis Hospital</t>
+  </si>
+  <si>
     <t>Deckerville Community Hospital</t>
   </si>
   <si>
-    <t>Pontiac General Hospital</t>
-  </si>
-  <si>
-    <t>Hurley Medical Center</t>
-  </si>
-  <si>
-    <t>Munson Health System</t>
-  </si>
-  <si>
-    <t>Beaumont</t>
-  </si>
-  <si>
-    <t>Sheridan Community Hospital</t>
-  </si>
-  <si>
-    <t>ProMedica</t>
-  </si>
-  <si>
-    <t>MidMichigan Health</t>
-  </si>
-  <si>
-    <t>Three Rivers Health</t>
-  </si>
-  <si>
-    <t>Scheurer Hospital</t>
-  </si>
-  <si>
-    <t>North Ottawa Community Hosp</t>
-  </si>
-  <si>
-    <t>Hillsdale Hospital</t>
-  </si>
-  <si>
-    <t>Michigan Medicine</t>
-  </si>
-  <si>
-    <t>Kalkaska Memorial Health Center</t>
+    <t>Hills and Dales General Hospital</t>
+  </si>
+  <si>
+    <t>Dickinson Memorial Health Care System</t>
+  </si>
+  <si>
+    <t>Schoolcraft Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Eaton Rapids Medical Center</t>
+  </si>
+  <si>
+    <t>Mackinac Straits Hospital</t>
+  </si>
+  <si>
+    <t>War Memorial Hospital</t>
+  </si>
+  <si>
+    <t>Helen Newberry Joy Hospital</t>
+  </si>
+  <si>
+    <t>Aspirus</t>
   </si>
   <si>
     <t>Harbor Beach Community Hospital</t>
   </si>
   <si>
-    <t>McKenzie Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Memorial Healthcare</t>
-  </si>
-  <si>
-    <t>Bronson</t>
-  </si>
-  <si>
-    <t>Ascension</t>
-  </si>
-  <si>
-    <t>Detroit Medical Center</t>
-  </si>
-  <si>
-    <t>Henry Ford Health System</t>
-  </si>
-  <si>
-    <t>Baraga County Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Marlette Regional Hospital</t>
-  </si>
-  <si>
-    <t>Munising Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Oaklawn Hospital</t>
-  </si>
-  <si>
-    <t>Prime Health</t>
-  </si>
-  <si>
-    <t>Aspirus</t>
-  </si>
-  <si>
-    <t>Hills and Dales General Hospital</t>
-  </si>
-  <si>
-    <t>Helen Newberry Joy Hospital</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>Straith Hospital</t>
-  </si>
-  <si>
-    <t>War Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Spectrum</t>
-  </si>
-  <si>
-    <t>McLaren</t>
-  </si>
-  <si>
-    <t>Eaton Rapids Medical Center</t>
-  </si>
-  <si>
-    <t>Mackinac Straits Hospital</t>
-  </si>
-  <si>
-    <t>Covenant</t>
-  </si>
-  <si>
-    <t>Schoolcraft Memorial Hospital</t>
-  </si>
-  <si>
-    <t>Dickinson Memorial Health Care System</t>
-  </si>
-  <si>
-    <t>Sturgis Hospital</t>
-  </si>
-  <si>
-    <t>OSF St. Francis Hospital</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>UP Health</t>
-  </si>
-  <si>
-    <t>Holland Community Hospital</t>
-  </si>
-  <si>
-    <t>Sparrow Health System</t>
-  </si>
-  <si>
     <t>21+ days</t>
   </si>
   <si>
@@ -208,10 +208,10 @@
     <t>7-14 days</t>
   </si>
   <si>
+    <t>Health System</t>
+  </si>
+  <si>
     <t>Independent</t>
-  </si>
-  <si>
-    <t>Health System</t>
   </si>
 </sst>
 </file>
@@ -624,10 +624,10 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
@@ -639,54 +639,54 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="L2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N2" t="s">
         <v>64</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="s">
         <v>61</v>
@@ -695,10 +695,10 @@
         <v>0.25</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J3" t="s">
         <v>60</v>
@@ -707,36 +707,36 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N3" t="s">
         <v>64</v>
       </c>
       <c r="O3">
-        <v>0.008</v>
+        <v>0.616</v>
       </c>
       <c r="P3">
-        <v>0.0005</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -751,10 +751,10 @@
         <v>0.25</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K4">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
         <v>61</v>
@@ -763,80 +763,80 @@
         <v>0.25</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.72</v>
       </c>
       <c r="P4">
-        <v>0.00390625</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B5">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>18</v>
       </c>
       <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5">
+        <v>0.75</v>
+      </c>
+      <c r="L5" t="s">
         <v>61</v>
       </c>
-      <c r="E5">
+      <c r="M5">
         <v>0.25</v>
       </c>
-      <c r="F5" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5">
-        <v>0.25</v>
-      </c>
-      <c r="H5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5">
-        <v>0.25</v>
-      </c>
-      <c r="J5" t="s">
-        <v>60</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>63</v>
-      </c>
-      <c r="M5">
-        <v>0.5</v>
-      </c>
       <c r="N5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O5">
-        <v>0.616</v>
+        <v>0.836</v>
       </c>
       <c r="P5">
-        <v>0.0048125</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
         <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -845,10 +845,10 @@
         <v>0.25</v>
       </c>
       <c r="H6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J6" t="s">
         <v>60</v>
@@ -857,27 +857,27 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M6">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6">
-        <v>0.72</v>
+        <v>0.537</v>
       </c>
       <c r="P6">
-        <v>0.008437500000000001</v>
+        <v>3.213</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -889,22 +889,22 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="H7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" t="s">
         <v>62</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.75</v>
-      </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
       </c>
       <c r="L7" t="s">
         <v>61</v>
@@ -916,45 +916,45 @@
         <v>64</v>
       </c>
       <c r="O7">
-        <v>0.188</v>
+        <v>0.283</v>
       </c>
       <c r="P7">
-        <v>0.008812500000000001</v>
+        <v>3.717</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B8">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="H8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="L8" t="s">
         <v>61</v>
@@ -966,83 +966,83 @@
         <v>65</v>
       </c>
       <c r="O8">
-        <v>0.283</v>
+        <v>0.364</v>
       </c>
       <c r="P8">
-        <v>0.013265625</v>
+        <v>3.886</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>63</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>0.5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
         <v>61</v>
       </c>
-      <c r="G9">
+      <c r="M9">
         <v>0.25</v>
       </c>
-      <c r="H9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I9">
-        <v>0.5</v>
-      </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M9">
-        <v>0.5</v>
-      </c>
       <c r="N9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O9">
-        <v>0.537</v>
+        <v>0.794</v>
       </c>
       <c r="P9">
-        <v>0.01678125</v>
+        <v>3.956</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="B10">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G10">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H10" t="s">
         <v>60</v>
@@ -1066,18 +1066,18 @@
         <v>64</v>
       </c>
       <c r="O10">
-        <v>0.364</v>
+        <v>0.7879999999999999</v>
       </c>
       <c r="P10">
-        <v>0.0170625</v>
+        <v>3.962</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>24</v>
@@ -1095,10 +1095,10 @@
         <v>0.25</v>
       </c>
       <c r="H11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="J11" t="s">
         <v>60</v>
@@ -1116,18 +1116,18 @@
         <v>64</v>
       </c>
       <c r="O11">
-        <v>0.121</v>
+        <v>0.7509999999999999</v>
       </c>
       <c r="P11">
-        <v>0.03025</v>
+        <v>3.999</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1139,45 +1139,45 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12">
+        <v>0.25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12" t="s">
         <v>63</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>0.5</v>
-      </c>
-      <c r="H12" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12">
-        <v>0.5</v>
-      </c>
-      <c r="J12" t="s">
-        <v>63</v>
-      </c>
-      <c r="K12">
-        <v>0.5</v>
-      </c>
-      <c r="L12" t="s">
-        <v>60</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
       </c>
       <c r="N12" t="s">
         <v>64</v>
       </c>
       <c r="O12">
-        <v>0.257</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="P12">
-        <v>0.032125</v>
+        <v>4.059</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B13">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -1189,45 +1189,45 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13">
+        <v>0.75</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
         <v>61</v>
       </c>
-      <c r="I13">
+      <c r="M13">
         <v>0.25</v>
       </c>
-      <c r="J13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13" t="s">
-        <v>60</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
       <c r="N13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O13">
-        <v>0.273</v>
+        <v>0.188</v>
       </c>
       <c r="P13">
-        <v>0.034125</v>
+        <v>4.062</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="B14">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1245,39 +1245,39 @@
         <v>0.5</v>
       </c>
       <c r="H14" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>60</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" t="s">
         <v>63</v>
       </c>
-      <c r="I14">
+      <c r="M14">
         <v>0.5</v>
       </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="K14">
-        <v>0.75</v>
-      </c>
-      <c r="L14" t="s">
-        <v>61</v>
-      </c>
-      <c r="M14">
-        <v>0.25</v>
-      </c>
       <c r="N14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O14">
-        <v>0.836</v>
+        <v>0.762</v>
       </c>
       <c r="P14">
-        <v>0.0391875</v>
+        <v>4.238</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B15">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1289,22 +1289,22 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I15">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L15" t="s">
         <v>60</v>
@@ -1313,42 +1313,42 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O15">
-        <v>0.25</v>
+        <v>0.257</v>
       </c>
       <c r="P15">
-        <v>0.0625</v>
+        <v>4.243</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -1363,21 +1363,21 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O16">
-        <v>0.067</v>
+        <v>0.4320000000000001</v>
       </c>
       <c r="P16">
-        <v>0.067</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1389,10 +1389,10 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H17" t="s">
         <v>60</v>
@@ -1407,55 +1407,55 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="N17" t="s">
         <v>64</v>
       </c>
       <c r="O17">
-        <v>0.16</v>
+        <v>0.613</v>
       </c>
       <c r="P17">
-        <v>0.08</v>
+        <v>4.387</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
       </c>
       <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18">
+        <v>0.25</v>
+      </c>
+      <c r="J18" t="s">
         <v>63</v>
       </c>
-      <c r="E18">
+      <c r="K18">
         <v>0.5</v>
       </c>
-      <c r="F18" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18">
-        <v>0.75</v>
-      </c>
-      <c r="J18" t="s">
-        <v>60</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18" t="s">
         <v>60</v>
       </c>
@@ -1463,21 +1463,21 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O18">
-        <v>0.4320000000000001</v>
+        <v>0.273</v>
       </c>
       <c r="P18">
-        <v>0.08100000000000002</v>
+        <v>4.477</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -1507,27 +1507,27 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M19">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="N19" t="s">
         <v>65</v>
       </c>
       <c r="O19">
-        <v>0.6909999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="P19">
-        <v>0.08637499999999999</v>
+        <v>4.492</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -1539,45 +1539,45 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G20">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>60</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
         <v>63</v>
       </c>
-      <c r="I20">
+      <c r="M20">
         <v>0.5</v>
       </c>
-      <c r="J20" t="s">
-        <v>60</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20" t="s">
-        <v>60</v>
-      </c>
-      <c r="M20">
-        <v>1</v>
-      </c>
       <c r="N20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20">
-        <v>0.7509999999999999</v>
+        <v>0.8240000000000001</v>
       </c>
       <c r="P20">
-        <v>0.09387499999999999</v>
+        <v>4.676</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B21">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -1607,27 +1607,27 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O21">
-        <v>0.7879999999999999</v>
+        <v>0.7859999999999999</v>
       </c>
       <c r="P21">
-        <v>0.09849999999999999</v>
+        <v>4.714</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -1639,17 +1639,17 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
         <v>63</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>0.5</v>
       </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
       <c r="J22" t="s">
         <v>60</v>
       </c>
@@ -1657,27 +1657,27 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M22">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O22">
-        <v>0.794</v>
+        <v>0.745</v>
       </c>
       <c r="P22">
-        <v>0.09925</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -1701,25 +1701,25 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="N23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O23">
-        <v>0.2</v>
+        <v>0.44</v>
       </c>
       <c r="P23">
-        <v>0.1</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1763,21 +1763,21 @@
         <v>0.75</v>
       </c>
       <c r="N24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O24">
         <v>0.28</v>
       </c>
       <c r="P24">
-        <v>0.105</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B25">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -1789,16 +1789,16 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="J25" t="s">
         <v>60</v>
@@ -1813,21 +1813,21 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O25">
-        <v>0.214</v>
+        <v>0.25</v>
       </c>
       <c r="P25">
-        <v>0.107</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -1839,10 +1839,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H26" t="s">
         <v>60</v>
@@ -1857,42 +1857,42 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M26">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O26">
-        <v>0.44</v>
+        <v>0.121</v>
       </c>
       <c r="P26">
-        <v>0.11</v>
+        <v>5.129</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B27">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
         <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H27" t="s">
         <v>60</v>
@@ -1907,27 +1907,27 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="N27" t="s">
         <v>65</v>
       </c>
       <c r="O27">
-        <v>0.613</v>
+        <v>0.6</v>
       </c>
       <c r="P27">
-        <v>0.1149375</v>
+        <v>5.15</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>41</v>
@@ -1963,21 +1963,21 @@
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O28">
-        <v>0.131</v>
+        <v>0.7909999999999999</v>
       </c>
       <c r="P28">
-        <v>0.131</v>
+        <v>5.209</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
         <v>42</v>
@@ -1989,10 +1989,10 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G29">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H29" t="s">
         <v>60</v>
@@ -2013,21 +2013,21 @@
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O29">
-        <v>0.229</v>
+        <v>0.73</v>
       </c>
       <c r="P29">
-        <v>0.17175</v>
+        <v>5.27</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="s">
         <v>60</v>
@@ -2063,21 +2063,21 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O30">
-        <v>0.182</v>
+        <v>0.214</v>
       </c>
       <c r="P30">
-        <v>0.182</v>
+        <v>5.286</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="B31">
-        <v>42</v>
+        <v>2</v>
       </c>
       <c r="C31" t="s">
         <v>44</v>
@@ -2089,45 +2089,45 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
         <v>63</v>
       </c>
-      <c r="G31">
+      <c r="K31">
         <v>0.5</v>
       </c>
-      <c r="H31" t="s">
-        <v>60</v>
-      </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-      <c r="J31" t="s">
-        <v>60</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
       <c r="L31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="s">
         <v>65</v>
       </c>
       <c r="O31">
-        <v>0.762</v>
+        <v>0.2</v>
       </c>
       <c r="P31">
-        <v>0.1905</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B32">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
         <v>45</v>
@@ -2139,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
         <v>60</v>
@@ -2166,18 +2166,18 @@
         <v>64</v>
       </c>
       <c r="O32">
-        <v>0.375</v>
+        <v>0.6870000000000001</v>
       </c>
       <c r="P32">
-        <v>0.28125</v>
+        <v>5.313</v>
       </c>
     </row>
     <row r="33" spans="1:16">
       <c r="A33" s="1">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B33">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="C33" t="s">
         <v>46</v>
@@ -2207,27 +2207,27 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="N33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O33">
-        <v>0.309</v>
+        <v>0.16</v>
       </c>
       <c r="P33">
-        <v>0.309</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="34" spans="1:16">
       <c r="A34" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>47</v>
@@ -2239,16 +2239,16 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J34" t="s">
         <v>60</v>
@@ -2266,18 +2266,18 @@
         <v>65</v>
       </c>
       <c r="O34">
-        <v>0.745</v>
+        <v>0.375</v>
       </c>
       <c r="P34">
-        <v>0.3725</v>
+        <v>5.375</v>
       </c>
     </row>
     <row r="35" spans="1:16">
       <c r="A35" s="1">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B35">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C35" t="s">
         <v>48</v>
@@ -2289,10 +2289,10 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>60</v>
@@ -2313,21 +2313,21 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O35">
-        <v>0.7859999999999999</v>
+        <v>0.5870000000000001</v>
       </c>
       <c r="P35">
-        <v>0.393</v>
+        <v>5.413</v>
       </c>
     </row>
     <row r="36" spans="1:16">
       <c r="A36" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="B36">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>49</v>
@@ -2363,21 +2363,21 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O36">
-        <v>0.4</v>
+        <v>0.5579999999999999</v>
       </c>
       <c r="P36">
-        <v>0.4</v>
+        <v>5.442</v>
       </c>
     </row>
     <row r="37" spans="1:16">
       <c r="A37" s="1">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B37">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>50</v>
@@ -2389,10 +2389,10 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H37" t="s">
         <v>60</v>
@@ -2413,21 +2413,21 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O37">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P37">
-        <v>0.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="38" spans="1:16">
       <c r="A38" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
@@ -2439,10 +2439,10 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -2457,27 +2457,27 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
         <v>65</v>
       </c>
       <c r="O38">
-        <v>0.8240000000000001</v>
+        <v>0.229</v>
       </c>
       <c r="P38">
-        <v>0.412</v>
+        <v>5.521</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B39">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>52</v>
@@ -2513,21 +2513,21 @@
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O39">
-        <v>0.417</v>
+        <v>0.429</v>
       </c>
       <c r="P39">
-        <v>0.417</v>
+        <v>5.571</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B40">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>53</v>
@@ -2563,30 +2563,30 @@
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O40">
-        <v>0.429</v>
+        <v>0.417</v>
       </c>
       <c r="P40">
-        <v>0.429</v>
+        <v>5.583</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
         <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E41">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>60</v>
@@ -2613,21 +2613,21 @@
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O41">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P41">
-        <v>0.45</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -2663,21 +2663,21 @@
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O42">
-        <v>0.5579999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="P42">
-        <v>0.5579999999999999</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C43" t="s">
         <v>56</v>
@@ -2716,18 +2716,18 @@
         <v>65</v>
       </c>
       <c r="O43">
-        <v>0.5870000000000001</v>
+        <v>0.309</v>
       </c>
       <c r="P43">
-        <v>0.5870000000000001</v>
+        <v>5.691</v>
       </c>
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B44">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>57</v>
@@ -2766,18 +2766,18 @@
         <v>65</v>
       </c>
       <c r="O44">
-        <v>0.6870000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="P44">
-        <v>0.6870000000000001</v>
+        <v>5.818</v>
       </c>
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C45" t="s">
         <v>58</v>
@@ -2816,18 +2816,18 @@
         <v>64</v>
       </c>
       <c r="O45">
-        <v>0.73</v>
+        <v>0.131</v>
       </c>
       <c r="P45">
-        <v>0.73</v>
+        <v>5.869</v>
       </c>
     </row>
     <row r="46" spans="1:16">
       <c r="A46" s="1">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="C46" t="s">
         <v>59</v>
@@ -2866,10 +2866,10 @@
         <v>65</v>
       </c>
       <c r="O46">
-        <v>0.7909999999999999</v>
+        <v>0.067</v>
       </c>
       <c r="P46">
-        <v>0.7909999999999999</v>
+        <v>5.933</v>
       </c>
     </row>
   </sheetData>
